--- a/src/test/resources/output/NonAnnotated.xlsx
+++ b/src/test/resources/output/NonAnnotated.xlsx
@@ -183,38 +183,20 @@
           <t>MI5</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1000007.0</v>
-      </c>
+      <c r="C2"/>
+      <c r="D2"/>
       <c r="E2" s="6" t="n">
         <v>43899.958645833336</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>12.243577</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>7.72871289</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>182.0</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>86.5</v>
-      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -227,38 +209,20 @@
           <t>CTU</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>250000.0</v>
-      </c>
+      <c r="C3"/>
+      <c r="D3"/>
       <c r="E3" s="6" t="n">
         <v>43899.958645833336</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>-9.820129</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>4.820192</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>87.0</v>
-      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -271,38 +235,20 @@
           <t>CIA</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>450000.0</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
       <c r="E4" s="6" t="n">
         <v>43899.958645833336</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>-12.91092</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>11.8102909</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>178.0</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>82.5</v>
-      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
